--- a/UIDecisionTable.xlsx
+++ b/UIDecisionTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2740" yWindow="8540" windowWidth="24700" windowHeight="18260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
-  <si>
-    <t>Enabled</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Button</t>
   </si>
@@ -64,10 +61,40 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -90,13 +117,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -426,89 +458,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="29" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="B2" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
